--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/10/seed2/result_data_RandomForest.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.11590000000001</v>
+        <v>-22.11290000000001</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>15.67319999999999</v>
+        <v>16.0705</v>
       </c>
     </row>
     <row r="4">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.15789999999998</v>
+        <v>-20.08799999999999</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.74359999999998</v>
+        <v>-20.79189999999997</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -848,12 +848,12 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.64210000000001</v>
+        <v>16.7121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.60789999999999</v>
+        <v>-21.70779999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.577400000000004</v>
+        <v>-8.615600000000004</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.701000000000008</v>
+        <v>-8.588300000000007</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.292899999999998</v>
+        <v>-8.395999999999999</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.296399999999997</v>
+        <v>-7.3799</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.645899999999998</v>
+        <v>-7.614900000000002</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.663699999999999</v>
+        <v>-7.759699999999999</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.8494</v>
+        <v>-21.82009999999999</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.476099999999995</v>
+        <v>-8.503599999999995</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.8904</v>
+        <v>-7.871599999999998</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.6113</v>
+        <v>-22.36549999999999</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1406,10 +1406,10 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.256699999999997</v>
+        <v>-8.293100000000003</v>
       </c>
       <c r="E57" t="n">
-        <v>16.54900000000001</v>
+        <v>16.4344</v>
       </c>
     </row>
     <row r="58">
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.10289999999999</v>
+        <v>-22.1121</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.4868</v>
+        <v>16.5177</v>
       </c>
     </row>
     <row r="62">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.5792</v>
+        <v>-21.5894</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.16550000000001</v>
+        <v>17.06740000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.904499999999998</v>
+        <v>-7.671199999999999</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.23090000000001</v>
+        <v>-20.37630000000001</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.9248</v>
+        <v>-21.85770000000001</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.64430000000001</v>
+        <v>16.67490000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.767400000000005</v>
+        <v>-5.815400000000002</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.954000000000002</v>
+        <v>-7.972199999999998</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.39929999999999</v>
+        <v>-21.3773</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.77860000000001</v>
+        <v>15.76809999999999</v>
       </c>
     </row>
     <row r="99">
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.75270000000002</v>
+        <v>16.60430000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.41039999999998</v>
+        <v>16.48159999999999</v>
       </c>
     </row>
   </sheetData>
